--- a/documentation/workout-buddy-product-backlog.xlsx
+++ b/documentation/workout-buddy-product-backlog.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="29">
   <si>
     <t>Task Name</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>Members sent messages (sent)</t>
+  </si>
+  <si>
+    <t>Send email for activation of acount</t>
+  </si>
+  <si>
+    <t>Password Recovery</t>
   </si>
 </sst>
 </file>
@@ -195,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -210,6 +216,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -595,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC69"/>
+  <dimension ref="A1:AC71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -959,25 +966,23 @@
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
     </row>
-    <row r="11" spans="1:29" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" s="8" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>20</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -1002,22 +1007,24 @@
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
     </row>
-    <row r="12" spans="1:29" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" s="8" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -1043,7 +1050,7 @@
     </row>
     <row r="13" spans="1:29" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
@@ -1055,8 +1062,12 @@
       <c r="E13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -1082,7 +1093,7 @@
     </row>
     <row r="14" spans="1:29" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
@@ -1092,7 +1103,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1121,15 +1132,17 @@
     </row>
     <row r="15" spans="1:29" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1158,12 +1171,14 @@
     </row>
     <row r="16" spans="1:29" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D16" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>13</v>
@@ -1195,7 +1210,7 @@
     </row>
     <row r="17" spans="1:29" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1231,11 +1246,17 @@
       <c r="AC17" s="4"/>
     </row>
     <row r="18" spans="1:29" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
+      <c r="A18" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="4"/>
@@ -1262,11 +1283,17 @@
       <c r="AC18" s="4"/>
     </row>
     <row r="19" spans="1:29" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="4"/>
@@ -1416,14 +1443,14 @@
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+    <row r="24" spans="1:29" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -1447,14 +1474,14 @@
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+    <row r="25" spans="1:29" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -1478,81 +1505,81 @@
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
     </row>
-    <row r="26" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6"/>
-      <c r="Z26" s="6"/>
-      <c r="AA26" s="6"/>
-      <c r="AB26" s="6"/>
-      <c r="AC26" s="6"/>
-    </row>
-    <row r="27" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="6"/>
-      <c r="X27" s="6"/>
-      <c r="Y27" s="6"/>
-      <c r="Z27" s="6"/>
-      <c r="AA27" s="6"/>
-      <c r="AB27" s="6"/>
-      <c r="AC27" s="6"/>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="4"/>
+      <c r="AC26" s="4"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="4"/>
     </row>
     <row r="28" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
       <c r="M28" s="9"/>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
@@ -1572,18 +1599,18 @@
       <c r="AC28" s="6"/>
     </row>
     <row r="29" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
       <c r="M29" s="9"/>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
@@ -1603,18 +1630,18 @@
       <c r="AC29" s="6"/>
     </row>
     <row r="30" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
       <c r="M30" s="9"/>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
@@ -1634,18 +1661,18 @@
       <c r="AC30" s="6"/>
     </row>
     <row r="31" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
       <c r="M31" s="9"/>
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
@@ -1664,67 +1691,67 @@
       <c r="AB31" s="6"/>
       <c r="AC31" s="6"/>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="4"/>
-      <c r="Z32" s="4"/>
-      <c r="AA32" s="4"/>
-      <c r="AB32" s="4"/>
-      <c r="AC32" s="4"/>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
-      <c r="Z33" s="4"/>
-      <c r="AA33" s="4"/>
-      <c r="AB33" s="4"/>
-      <c r="AC33" s="4"/>
+    <row r="32" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="6"/>
+      <c r="AB32" s="6"/>
+      <c r="AC32" s="6"/>
+    </row>
+    <row r="33" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="6"/>
+      <c r="AB33" s="6"/>
+      <c r="AC33" s="6"/>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
@@ -2842,18 +2869,80 @@
       <c r="AB69" s="4"/>
       <c r="AC69" s="4"/>
     </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="4"/>
+      <c r="Q70" s="4"/>
+      <c r="R70" s="4"/>
+      <c r="S70" s="4"/>
+      <c r="T70" s="4"/>
+      <c r="U70" s="4"/>
+      <c r="V70" s="4"/>
+      <c r="W70" s="4"/>
+      <c r="X70" s="4"/>
+      <c r="Y70" s="4"/>
+      <c r="Z70" s="4"/>
+      <c r="AA70" s="4"/>
+      <c r="AB70" s="4"/>
+      <c r="AC70" s="4"/>
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4"/>
+      <c r="O71" s="4"/>
+      <c r="P71" s="4"/>
+      <c r="Q71" s="4"/>
+      <c r="R71" s="4"/>
+      <c r="S71" s="4"/>
+      <c r="T71" s="4"/>
+      <c r="U71" s="4"/>
+      <c r="V71" s="4"/>
+      <c r="W71" s="4"/>
+      <c r="X71" s="4"/>
+      <c r="Y71" s="4"/>
+      <c r="Z71" s="4"/>
+      <c r="AA71" s="4"/>
+      <c r="AB71" s="4"/>
+      <c r="AC71" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A26:L31"/>
+    <mergeCell ref="A28:L33"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:C23 G9:G23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:C25 G9:G25">
       <formula1>YesNo</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D25">
       <formula1>Priority</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E25">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>

--- a/documentation/workout-buddy-product-backlog.xlsx
+++ b/documentation/workout-buddy-product-backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12000" yWindow="0" windowWidth="23256" windowHeight="19644" tabRatio="500"/>
+    <workbookView xWindow="13176" yWindow="-204" windowWidth="23256" windowHeight="13176" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="37">
   <si>
     <t>Task Name</t>
   </si>
@@ -90,9 +90,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>User Add grous public/private groups</t>
-  </si>
-  <si>
     <t xml:space="preserve">User Add members to group </t>
   </si>
   <si>
@@ -112,6 +109,33 @@
   </si>
   <si>
     <t>Password Recovery</t>
+  </si>
+  <si>
+    <t>Find group by category</t>
+  </si>
+  <si>
+    <t>Private group invite</t>
+  </si>
+  <si>
+    <t>Add Challenge</t>
+  </si>
+  <si>
+    <t>View Challenge</t>
+  </si>
+  <si>
+    <t>Add Bootstrap theme</t>
+  </si>
+  <si>
+    <t>Log user login in log file</t>
+  </si>
+  <si>
+    <t>Join a public group</t>
+  </si>
+  <si>
+    <t>Leave a public group</t>
+  </si>
+  <si>
+    <t>User Add groups public/private groups</t>
   </si>
 </sst>
 </file>
@@ -201,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -216,6 +240,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -602,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC71"/>
+  <dimension ref="A1:AC75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -966,9 +992,9 @@
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
     </row>
-    <row r="11" spans="1:29" s="8" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" s="10" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
@@ -1009,14 +1035,14 @@
     </row>
     <row r="12" spans="1:29" s="8" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>14</v>
@@ -1048,25 +1074,23 @@
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
     </row>
-    <row r="13" spans="1:29" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" s="8" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>20</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -1093,7 +1117,7 @@
     </row>
     <row r="14" spans="1:29" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
@@ -1105,8 +1129,12 @@
       <c r="E14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -1132,7 +1160,7 @@
     </row>
     <row r="15" spans="1:29" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
@@ -1145,7 +1173,9 @@
         <v>12</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -1171,7 +1201,7 @@
     </row>
     <row r="16" spans="1:29" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
@@ -1181,10 +1211,12 @@
         <v>9</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="G16" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -1208,20 +1240,24 @@
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
     </row>
-    <row r="17" spans="1:29" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" s="10" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D17" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -1245,20 +1281,24 @@
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
     </row>
-    <row r="18" spans="1:29" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" s="10" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D18" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="G18" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -1282,20 +1322,24 @@
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
     </row>
-    <row r="19" spans="1:29" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" s="11" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D19" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="G19" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -1320,13 +1364,23 @@
       <c r="AC19" s="4"/>
     </row>
     <row r="20" spans="1:29" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="G20" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -1351,13 +1405,23 @@
       <c r="AC20" s="4"/>
     </row>
     <row r="21" spans="1:29" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
+      <c r="A21" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="G21" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -1382,13 +1446,23 @@
       <c r="AC21" s="4"/>
     </row>
     <row r="22" spans="1:29" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
+      <c r="A22" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="G22" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -1413,13 +1487,23 @@
       <c r="AC22" s="4"/>
     </row>
     <row r="23" spans="1:29" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
+      <c r="A23" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="G23" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -1444,13 +1528,23 @@
       <c r="AC23" s="4"/>
     </row>
     <row r="24" spans="1:29" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
+      <c r="A24" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="G24" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -1475,13 +1569,23 @@
       <c r="AC24" s="4"/>
     </row>
     <row r="25" spans="1:29" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
+      <c r="A25" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+      <c r="G25" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -1505,14 +1609,24 @@
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+    <row r="26" spans="1:29" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -1536,14 +1650,24 @@
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+    <row r="27" spans="1:29" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -1567,143 +1691,143 @@
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
     </row>
-    <row r="28" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
-      <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="6"/>
-      <c r="Z28" s="6"/>
-      <c r="AA28" s="6"/>
-      <c r="AB28" s="6"/>
-      <c r="AC28" s="6"/>
-    </row>
-    <row r="29" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="6"/>
-      <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
-      <c r="Y29" s="6"/>
-      <c r="Z29" s="6"/>
-      <c r="AA29" s="6"/>
-      <c r="AB29" s="6"/>
-      <c r="AC29" s="6"/>
-    </row>
-    <row r="30" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="6"/>
-      <c r="W30" s="6"/>
-      <c r="X30" s="6"/>
-      <c r="Y30" s="6"/>
-      <c r="Z30" s="6"/>
-      <c r="AA30" s="6"/>
-      <c r="AB30" s="6"/>
-      <c r="AC30" s="6"/>
-    </row>
-    <row r="31" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="6"/>
-      <c r="W31" s="6"/>
-      <c r="X31" s="6"/>
-      <c r="Y31" s="6"/>
-      <c r="Z31" s="6"/>
-      <c r="AA31" s="6"/>
-      <c r="AB31" s="6"/>
-      <c r="AC31" s="6"/>
+    <row r="28" spans="1:29" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="4"/>
+    </row>
+    <row r="29" spans="1:29" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4"/>
+      <c r="AB29" s="4"/>
+      <c r="AC29" s="4"/>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="4"/>
+      <c r="AB30" s="4"/>
+      <c r="AC30" s="4"/>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="4"/>
+      <c r="AB31" s="4"/>
+      <c r="AC31" s="4"/>
     </row>
     <row r="32" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
       <c r="M32" s="9"/>
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
@@ -1723,18 +1847,18 @@
       <c r="AC32" s="6"/>
     </row>
     <row r="33" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
       <c r="M33" s="9"/>
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>
@@ -1753,129 +1877,129 @@
       <c r="AB33" s="6"/>
       <c r="AC33" s="6"/>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4"/>
-      <c r="W34" s="4"/>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="4"/>
-      <c r="Z34" s="4"/>
-      <c r="AA34" s="4"/>
-      <c r="AB34" s="4"/>
-      <c r="AC34" s="4"/>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
-      <c r="W35" s="4"/>
-      <c r="X35" s="4"/>
-      <c r="Y35" s="4"/>
-      <c r="Z35" s="4"/>
-      <c r="AA35" s="4"/>
-      <c r="AB35" s="4"/>
-      <c r="AC35" s="4"/>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="W36" s="4"/>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="4"/>
-      <c r="Z36" s="4"/>
-      <c r="AA36" s="4"/>
-      <c r="AB36" s="4"/>
-      <c r="AC36" s="4"/>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="4"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
-      <c r="W37" s="4"/>
-      <c r="X37" s="4"/>
-      <c r="Y37" s="4"/>
-      <c r="Z37" s="4"/>
-      <c r="AA37" s="4"/>
-      <c r="AB37" s="4"/>
-      <c r="AC37" s="4"/>
+    <row r="34" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="6"/>
+      <c r="X34" s="6"/>
+      <c r="Y34" s="6"/>
+      <c r="Z34" s="6"/>
+      <c r="AA34" s="6"/>
+      <c r="AB34" s="6"/>
+      <c r="AC34" s="6"/>
+    </row>
+    <row r="35" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="6"/>
+      <c r="AA35" s="6"/>
+      <c r="AB35" s="6"/>
+      <c r="AC35" s="6"/>
+    </row>
+    <row r="36" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
+      <c r="AA36" s="6"/>
+      <c r="AB36" s="6"/>
+      <c r="AC36" s="6"/>
+    </row>
+    <row r="37" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="6"/>
+      <c r="Y37" s="6"/>
+      <c r="Z37" s="6"/>
+      <c r="AA37" s="6"/>
+      <c r="AB37" s="6"/>
+      <c r="AC37" s="6"/>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
@@ -2931,18 +3055,142 @@
       <c r="AB71" s="4"/>
       <c r="AC71" s="4"/>
     </row>
+    <row r="72" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4"/>
+      <c r="Q72" s="4"/>
+      <c r="R72" s="4"/>
+      <c r="S72" s="4"/>
+      <c r="T72" s="4"/>
+      <c r="U72" s="4"/>
+      <c r="V72" s="4"/>
+      <c r="W72" s="4"/>
+      <c r="X72" s="4"/>
+      <c r="Y72" s="4"/>
+      <c r="Z72" s="4"/>
+      <c r="AA72" s="4"/>
+      <c r="AB72" s="4"/>
+      <c r="AC72" s="4"/>
+    </row>
+    <row r="73" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
+      <c r="O73" s="4"/>
+      <c r="P73" s="4"/>
+      <c r="Q73" s="4"/>
+      <c r="R73" s="4"/>
+      <c r="S73" s="4"/>
+      <c r="T73" s="4"/>
+      <c r="U73" s="4"/>
+      <c r="V73" s="4"/>
+      <c r="W73" s="4"/>
+      <c r="X73" s="4"/>
+      <c r="Y73" s="4"/>
+      <c r="Z73" s="4"/>
+      <c r="AA73" s="4"/>
+      <c r="AB73" s="4"/>
+      <c r="AC73" s="4"/>
+    </row>
+    <row r="74" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
+      <c r="O74" s="4"/>
+      <c r="P74" s="4"/>
+      <c r="Q74" s="4"/>
+      <c r="R74" s="4"/>
+      <c r="S74" s="4"/>
+      <c r="T74" s="4"/>
+      <c r="U74" s="4"/>
+      <c r="V74" s="4"/>
+      <c r="W74" s="4"/>
+      <c r="X74" s="4"/>
+      <c r="Y74" s="4"/>
+      <c r="Z74" s="4"/>
+      <c r="AA74" s="4"/>
+      <c r="AB74" s="4"/>
+      <c r="AC74" s="4"/>
+    </row>
+    <row r="75" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
+      <c r="O75" s="4"/>
+      <c r="P75" s="4"/>
+      <c r="Q75" s="4"/>
+      <c r="R75" s="4"/>
+      <c r="S75" s="4"/>
+      <c r="T75" s="4"/>
+      <c r="U75" s="4"/>
+      <c r="V75" s="4"/>
+      <c r="W75" s="4"/>
+      <c r="X75" s="4"/>
+      <c r="Y75" s="4"/>
+      <c r="Z75" s="4"/>
+      <c r="AA75" s="4"/>
+      <c r="AB75" s="4"/>
+      <c r="AC75" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A28:L33"/>
+    <mergeCell ref="A32:L37"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:C25 G9:G25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:C29 G9:G29">
       <formula1>YesNo</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D29">
       <formula1>Priority</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E29">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>
@@ -2962,7 +3210,7 @@
   <dimension ref="A3:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/documentation/workout-buddy-product-backlog.xlsx
+++ b/documentation/workout-buddy-product-backlog.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santo_000\Documents\GitHub\EECS448_Project3\documentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13176" yWindow="-204" windowWidth="23256" windowHeight="13176" tabRatio="500"/>
+    <workbookView xWindow="13170" yWindow="-210" windowWidth="23250" windowHeight="13170" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="50">
   <si>
     <t>Task Name</t>
   </si>
@@ -136,6 +141,45 @@
   </si>
   <si>
     <t>User Add groups public/private groups</t>
+  </si>
+  <si>
+    <t>Add Routine</t>
+  </si>
+  <si>
+    <t>View Routine</t>
+  </si>
+  <si>
+    <t>Add Calendar</t>
+  </si>
+  <si>
+    <t>Add Start Date and End Date</t>
+  </si>
+  <si>
+    <t>Edit Routine</t>
+  </si>
+  <si>
+    <t>Add Exercise</t>
+  </si>
+  <si>
+    <t>Add Log event</t>
+  </si>
+  <si>
+    <t>View Log event</t>
+  </si>
+  <si>
+    <t>Add Agenda</t>
+  </si>
+  <si>
+    <t>Edit Exercise</t>
+  </si>
+  <si>
+    <t>View Exercise</t>
+  </si>
+  <si>
+    <t>Add Group feature for Exercise</t>
+  </si>
+  <si>
+    <t>Delete Routine</t>
   </si>
 </sst>
 </file>
@@ -225,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -243,6 +287,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -252,6 +297,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -628,24 +676,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC75"/>
+  <dimension ref="A1:AC95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.8984375" customWidth="1"/>
+    <col min="1" max="1" width="34.875" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="13.796875" customWidth="1"/>
-    <col min="4" max="4" width="15.296875" customWidth="1"/>
-    <col min="5" max="5" width="16.69921875" customWidth="1"/>
-    <col min="6" max="6" width="13.796875" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
+    <col min="5" max="5" width="16.75" customWidth="1"/>
+    <col min="6" max="6" width="13.75" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -676,7 +724,7 @@
       <c r="AB1" s="4"/>
       <c r="AC1" s="4"/>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -706,7 +754,7 @@
       <c r="AB2" s="4"/>
       <c r="AC2" s="4"/>
     </row>
-    <row r="3" spans="1:29" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
@@ -739,7 +787,7 @@
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -770,7 +818,7 @@
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -801,7 +849,7 @@
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -832,7 +880,7 @@
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -863,7 +911,7 @@
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
     </row>
-    <row r="8" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -908,7 +956,7 @@
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
     </row>
-    <row r="9" spans="1:29" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -949,7 +997,7 @@
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
     </row>
-    <row r="10" spans="1:29" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -992,7 +1040,7 @@
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
     </row>
-    <row r="11" spans="1:29" s="10" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" s="10" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
@@ -1033,7 +1081,7 @@
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
     </row>
-    <row r="12" spans="1:29" s="8" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" s="8" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -1074,7 +1122,7 @@
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
     </row>
-    <row r="13" spans="1:29" s="8" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" s="8" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -1115,7 +1163,7 @@
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
     </row>
-    <row r="14" spans="1:29" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -1158,7 +1206,7 @@
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
     </row>
-    <row r="15" spans="1:29" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
@@ -1199,7 +1247,7 @@
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
     </row>
-    <row r="16" spans="1:29" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -1240,7 +1288,7 @@
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
     </row>
-    <row r="17" spans="1:29" s="10" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" s="10" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
@@ -1281,7 +1329,7 @@
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
     </row>
-    <row r="18" spans="1:29" s="10" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" s="10" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -1322,7 +1370,7 @@
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
     </row>
-    <row r="19" spans="1:29" s="11" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" s="11" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>35</v>
       </c>
@@ -1363,7 +1411,7 @@
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
     </row>
-    <row r="20" spans="1:29" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" s="12" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -1404,7 +1452,7 @@
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
     </row>
-    <row r="21" spans="1:29" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" s="12" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -1445,7 +1493,7 @@
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
     </row>
-    <row r="22" spans="1:29" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" s="12" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
@@ -1486,7 +1534,7 @@
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
     </row>
-    <row r="23" spans="1:29" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" s="12" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
@@ -1527,7 +1575,7 @@
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
     </row>
-    <row r="24" spans="1:29" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" s="12" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
@@ -1568,7 +1616,7 @@
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
     </row>
-    <row r="25" spans="1:29" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" s="12" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
@@ -1609,7 +1657,7 @@
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
     </row>
-    <row r="26" spans="1:29" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" s="12" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
@@ -1650,7 +1698,7 @@
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
     </row>
-    <row r="27" spans="1:29" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" s="12" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
@@ -1691,14 +1739,24 @@
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
     </row>
-    <row r="28" spans="1:29" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
+    <row r="28" spans="1:29" s="12" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
+      <c r="G28" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -1722,14 +1780,24 @@
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
     </row>
-    <row r="29" spans="1:29" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
+    <row r="29" spans="1:29" s="12" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
+      <c r="G29" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -1753,14 +1821,24 @@
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+    <row r="30" spans="1:29" s="12" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -1784,14 +1862,24 @@
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+    <row r="31" spans="1:29" s="12" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -1815,200 +1903,270 @@
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
     </row>
-    <row r="32" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
-      <c r="U32" s="6"/>
-      <c r="V32" s="6"/>
-      <c r="W32" s="6"/>
-      <c r="X32" s="6"/>
-      <c r="Y32" s="6"/>
-      <c r="Z32" s="6"/>
-      <c r="AA32" s="6"/>
-      <c r="AB32" s="6"/>
-      <c r="AC32" s="6"/>
-    </row>
-    <row r="33" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="6"/>
-      <c r="V33" s="6"/>
-      <c r="W33" s="6"/>
-      <c r="X33" s="6"/>
-      <c r="Y33" s="6"/>
-      <c r="Z33" s="6"/>
-      <c r="AA33" s="6"/>
-      <c r="AB33" s="6"/>
-      <c r="AC33" s="6"/>
-    </row>
-    <row r="34" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="6"/>
-      <c r="W34" s="6"/>
-      <c r="X34" s="6"/>
-      <c r="Y34" s="6"/>
-      <c r="Z34" s="6"/>
-      <c r="AA34" s="6"/>
-      <c r="AB34" s="6"/>
-      <c r="AC34" s="6"/>
-    </row>
-    <row r="35" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
-      <c r="V35" s="6"/>
-      <c r="W35" s="6"/>
-      <c r="X35" s="6"/>
-      <c r="Y35" s="6"/>
-      <c r="Z35" s="6"/>
-      <c r="AA35" s="6"/>
-      <c r="AB35" s="6"/>
-      <c r="AC35" s="6"/>
-    </row>
-    <row r="36" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
-      <c r="U36" s="6"/>
-      <c r="V36" s="6"/>
-      <c r="W36" s="6"/>
-      <c r="X36" s="6"/>
-      <c r="Y36" s="6"/>
-      <c r="Z36" s="6"/>
-      <c r="AA36" s="6"/>
-      <c r="AB36" s="6"/>
-      <c r="AC36" s="6"/>
-    </row>
-    <row r="37" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
-      <c r="U37" s="6"/>
-      <c r="V37" s="6"/>
-      <c r="W37" s="6"/>
-      <c r="X37" s="6"/>
-      <c r="Y37" s="6"/>
-      <c r="Z37" s="6"/>
-      <c r="AA37" s="6"/>
-      <c r="AB37" s="6"/>
-      <c r="AC37" s="6"/>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
+    <row r="32" spans="1:29" s="12" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
+      <c r="AA32" s="4"/>
+      <c r="AB32" s="4"/>
+      <c r="AC32" s="4"/>
+    </row>
+    <row r="33" spans="1:29" s="12" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="4"/>
+      <c r="AB33" s="4"/>
+      <c r="AC33" s="4"/>
+    </row>
+    <row r="34" spans="1:29" s="12" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4"/>
+      <c r="AA34" s="4"/>
+      <c r="AB34" s="4"/>
+      <c r="AC34" s="4"/>
+    </row>
+    <row r="35" spans="1:29" s="12" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="4"/>
+    </row>
+    <row r="36" spans="1:29" s="12" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="4"/>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="4"/>
+    </row>
+    <row r="37" spans="1:29" s="12" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+      <c r="AA37" s="4"/>
+      <c r="AB37" s="4"/>
+      <c r="AC37" s="4"/>
+    </row>
+    <row r="38" spans="1:29" s="12" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
@@ -2032,14 +2190,24 @@
       <c r="AB38" s="4"/>
       <c r="AC38" s="4"/>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
+    <row r="39" spans="1:29" s="12" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
@@ -2063,14 +2231,24 @@
       <c r="AB39" s="4"/>
       <c r="AC39" s="4"/>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
+    <row r="40" spans="1:29" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
@@ -2094,14 +2272,16 @@
       <c r="AB40" s="4"/>
       <c r="AC40" s="4"/>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
+    <row r="41" spans="1:29" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
@@ -2125,14 +2305,16 @@
       <c r="AB41" s="4"/>
       <c r="AC41" s="4"/>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
+    <row r="42" spans="1:29" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
@@ -2156,14 +2338,16 @@
       <c r="AB42" s="4"/>
       <c r="AC42" s="4"/>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
+    <row r="43" spans="1:29" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
@@ -2187,14 +2371,16 @@
       <c r="AB43" s="4"/>
       <c r="AC43" s="4"/>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
+    <row r="44" spans="1:29" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -2218,14 +2404,16 @@
       <c r="AB44" s="4"/>
       <c r="AC44" s="4"/>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
+    <row r="45" spans="1:29" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
@@ -2249,14 +2437,16 @@
       <c r="AB45" s="4"/>
       <c r="AC45" s="4"/>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
+    <row r="46" spans="1:29" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
@@ -2280,14 +2470,16 @@
       <c r="AB46" s="4"/>
       <c r="AC46" s="4"/>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
+    <row r="47" spans="1:29" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
@@ -2311,14 +2503,16 @@
       <c r="AB47" s="4"/>
       <c r="AC47" s="4"/>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
+    <row r="48" spans="1:29" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -2342,14 +2536,16 @@
       <c r="AB48" s="4"/>
       <c r="AC48" s="4"/>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
+    <row r="49" spans="1:29" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
@@ -2373,7 +2569,7 @@
       <c r="AB49" s="4"/>
       <c r="AC49" s="4"/>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -2404,7 +2600,7 @@
       <c r="AB50" s="4"/>
       <c r="AC50" s="4"/>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -2435,193 +2631,193 @@
       <c r="AB51" s="4"/>
       <c r="AC51" s="4"/>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4"/>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="4"/>
-      <c r="R52" s="4"/>
-      <c r="S52" s="4"/>
-      <c r="T52" s="4"/>
-      <c r="U52" s="4"/>
-      <c r="V52" s="4"/>
-      <c r="W52" s="4"/>
-      <c r="X52" s="4"/>
-      <c r="Y52" s="4"/>
-      <c r="Z52" s="4"/>
-      <c r="AA52" s="4"/>
-      <c r="AB52" s="4"/>
-      <c r="AC52" s="4"/>
-    </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
-      <c r="O53" s="4"/>
-      <c r="P53" s="4"/>
-      <c r="Q53" s="4"/>
-      <c r="R53" s="4"/>
-      <c r="S53" s="4"/>
-      <c r="T53" s="4"/>
-      <c r="U53" s="4"/>
-      <c r="V53" s="4"/>
-      <c r="W53" s="4"/>
-      <c r="X53" s="4"/>
-      <c r="Y53" s="4"/>
-      <c r="Z53" s="4"/>
-      <c r="AA53" s="4"/>
-      <c r="AB53" s="4"/>
-      <c r="AC53" s="4"/>
-    </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4"/>
-      <c r="O54" s="4"/>
-      <c r="P54" s="4"/>
-      <c r="Q54" s="4"/>
-      <c r="R54" s="4"/>
-      <c r="S54" s="4"/>
-      <c r="T54" s="4"/>
-      <c r="U54" s="4"/>
-      <c r="V54" s="4"/>
-      <c r="W54" s="4"/>
-      <c r="X54" s="4"/>
-      <c r="Y54" s="4"/>
-      <c r="Z54" s="4"/>
-      <c r="AA54" s="4"/>
-      <c r="AB54" s="4"/>
-      <c r="AC54" s="4"/>
-    </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
-      <c r="O55" s="4"/>
-      <c r="P55" s="4"/>
-      <c r="Q55" s="4"/>
-      <c r="R55" s="4"/>
-      <c r="S55" s="4"/>
-      <c r="T55" s="4"/>
-      <c r="U55" s="4"/>
-      <c r="V55" s="4"/>
-      <c r="W55" s="4"/>
-      <c r="X55" s="4"/>
-      <c r="Y55" s="4"/>
-      <c r="Z55" s="4"/>
-      <c r="AA55" s="4"/>
-      <c r="AB55" s="4"/>
-      <c r="AC55" s="4"/>
-    </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4"/>
-      <c r="Q56" s="4"/>
-      <c r="R56" s="4"/>
-      <c r="S56" s="4"/>
-      <c r="T56" s="4"/>
-      <c r="U56" s="4"/>
-      <c r="V56" s="4"/>
-      <c r="W56" s="4"/>
-      <c r="X56" s="4"/>
-      <c r="Y56" s="4"/>
-      <c r="Z56" s="4"/>
-      <c r="AA56" s="4"/>
-      <c r="AB56" s="4"/>
-      <c r="AC56" s="4"/>
-    </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4"/>
-      <c r="O57" s="4"/>
-      <c r="P57" s="4"/>
-      <c r="Q57" s="4"/>
-      <c r="R57" s="4"/>
-      <c r="S57" s="4"/>
-      <c r="T57" s="4"/>
-      <c r="U57" s="4"/>
-      <c r="V57" s="4"/>
-      <c r="W57" s="4"/>
-      <c r="X57" s="4"/>
-      <c r="Y57" s="4"/>
-      <c r="Z57" s="4"/>
-      <c r="AA57" s="4"/>
-      <c r="AB57" s="4"/>
-      <c r="AC57" s="4"/>
-    </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="13"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6"/>
+      <c r="U52" s="6"/>
+      <c r="V52" s="6"/>
+      <c r="W52" s="6"/>
+      <c r="X52" s="6"/>
+      <c r="Y52" s="6"/>
+      <c r="Z52" s="6"/>
+      <c r="AA52" s="6"/>
+      <c r="AB52" s="6"/>
+      <c r="AC52" s="6"/>
+    </row>
+    <row r="53" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="13"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6"/>
+      <c r="U53" s="6"/>
+      <c r="V53" s="6"/>
+      <c r="W53" s="6"/>
+      <c r="X53" s="6"/>
+      <c r="Y53" s="6"/>
+      <c r="Z53" s="6"/>
+      <c r="AA53" s="6"/>
+      <c r="AB53" s="6"/>
+      <c r="AC53" s="6"/>
+    </row>
+    <row r="54" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="13"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="6"/>
+      <c r="T54" s="6"/>
+      <c r="U54" s="6"/>
+      <c r="V54" s="6"/>
+      <c r="W54" s="6"/>
+      <c r="X54" s="6"/>
+      <c r="Y54" s="6"/>
+      <c r="Z54" s="6"/>
+      <c r="AA54" s="6"/>
+      <c r="AB54" s="6"/>
+      <c r="AC54" s="6"/>
+    </row>
+    <row r="55" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="13"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="13"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="6"/>
+      <c r="T55" s="6"/>
+      <c r="U55" s="6"/>
+      <c r="V55" s="6"/>
+      <c r="W55" s="6"/>
+      <c r="X55" s="6"/>
+      <c r="Y55" s="6"/>
+      <c r="Z55" s="6"/>
+      <c r="AA55" s="6"/>
+      <c r="AB55" s="6"/>
+      <c r="AC55" s="6"/>
+    </row>
+    <row r="56" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="13"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="13"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="6"/>
+      <c r="U56" s="6"/>
+      <c r="V56" s="6"/>
+      <c r="W56" s="6"/>
+      <c r="X56" s="6"/>
+      <c r="Y56" s="6"/>
+      <c r="Z56" s="6"/>
+      <c r="AA56" s="6"/>
+      <c r="AB56" s="6"/>
+      <c r="AC56" s="6"/>
+    </row>
+    <row r="57" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="13"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="6"/>
+      <c r="T57" s="6"/>
+      <c r="U57" s="6"/>
+      <c r="V57" s="6"/>
+      <c r="W57" s="6"/>
+      <c r="X57" s="6"/>
+      <c r="Y57" s="6"/>
+      <c r="Z57" s="6"/>
+      <c r="AA57" s="6"/>
+      <c r="AB57" s="6"/>
+      <c r="AC57" s="6"/>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -2652,7 +2848,7 @@
       <c r="AB58" s="4"/>
       <c r="AC58" s="4"/>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -2683,7 +2879,7 @@
       <c r="AB59" s="4"/>
       <c r="AC59" s="4"/>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -2714,7 +2910,7 @@
       <c r="AB60" s="4"/>
       <c r="AC60" s="4"/>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -2745,7 +2941,7 @@
       <c r="AB61" s="4"/>
       <c r="AC61" s="4"/>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -2776,7 +2972,7 @@
       <c r="AB62" s="4"/>
       <c r="AC62" s="4"/>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -2807,7 +3003,7 @@
       <c r="AB63" s="4"/>
       <c r="AC63" s="4"/>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -2838,7 +3034,7 @@
       <c r="AB64" s="4"/>
       <c r="AC64" s="4"/>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -2869,7 +3065,7 @@
       <c r="AB65" s="4"/>
       <c r="AC65" s="4"/>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -2900,7 +3096,7 @@
       <c r="AB66" s="4"/>
       <c r="AC66" s="4"/>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -2931,7 +3127,7 @@
       <c r="AB67" s="4"/>
       <c r="AC67" s="4"/>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -2962,7 +3158,7 @@
       <c r="AB68" s="4"/>
       <c r="AC68" s="4"/>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -2993,7 +3189,7 @@
       <c r="AB69" s="4"/>
       <c r="AC69" s="4"/>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -3024,7 +3220,7 @@
       <c r="AB70" s="4"/>
       <c r="AC70" s="4"/>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -3055,7 +3251,7 @@
       <c r="AB71" s="4"/>
       <c r="AC71" s="4"/>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -3086,7 +3282,7 @@
       <c r="AB72" s="4"/>
       <c r="AC72" s="4"/>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -3117,7 +3313,7 @@
       <c r="AB73" s="4"/>
       <c r="AC73" s="4"/>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -3148,7 +3344,7 @@
       <c r="AB74" s="4"/>
       <c r="AC74" s="4"/>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -3179,18 +3375,638 @@
       <c r="AB75" s="4"/>
       <c r="AC75" s="4"/>
     </row>
+    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
+      <c r="O76" s="4"/>
+      <c r="P76" s="4"/>
+      <c r="Q76" s="4"/>
+      <c r="R76" s="4"/>
+      <c r="S76" s="4"/>
+      <c r="T76" s="4"/>
+      <c r="U76" s="4"/>
+      <c r="V76" s="4"/>
+      <c r="W76" s="4"/>
+      <c r="X76" s="4"/>
+      <c r="Y76" s="4"/>
+      <c r="Z76" s="4"/>
+      <c r="AA76" s="4"/>
+      <c r="AB76" s="4"/>
+      <c r="AC76" s="4"/>
+    </row>
+    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
+      <c r="O77" s="4"/>
+      <c r="P77" s="4"/>
+      <c r="Q77" s="4"/>
+      <c r="R77" s="4"/>
+      <c r="S77" s="4"/>
+      <c r="T77" s="4"/>
+      <c r="U77" s="4"/>
+      <c r="V77" s="4"/>
+      <c r="W77" s="4"/>
+      <c r="X77" s="4"/>
+      <c r="Y77" s="4"/>
+      <c r="Z77" s="4"/>
+      <c r="AA77" s="4"/>
+      <c r="AB77" s="4"/>
+      <c r="AC77" s="4"/>
+    </row>
+    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
+      <c r="O78" s="4"/>
+      <c r="P78" s="4"/>
+      <c r="Q78" s="4"/>
+      <c r="R78" s="4"/>
+      <c r="S78" s="4"/>
+      <c r="T78" s="4"/>
+      <c r="U78" s="4"/>
+      <c r="V78" s="4"/>
+      <c r="W78" s="4"/>
+      <c r="X78" s="4"/>
+      <c r="Y78" s="4"/>
+      <c r="Z78" s="4"/>
+      <c r="AA78" s="4"/>
+      <c r="AB78" s="4"/>
+      <c r="AC78" s="4"/>
+    </row>
+    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
+      <c r="P79" s="4"/>
+      <c r="Q79" s="4"/>
+      <c r="R79" s="4"/>
+      <c r="S79" s="4"/>
+      <c r="T79" s="4"/>
+      <c r="U79" s="4"/>
+      <c r="V79" s="4"/>
+      <c r="W79" s="4"/>
+      <c r="X79" s="4"/>
+      <c r="Y79" s="4"/>
+      <c r="Z79" s="4"/>
+      <c r="AA79" s="4"/>
+      <c r="AB79" s="4"/>
+      <c r="AC79" s="4"/>
+    </row>
+    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
+      <c r="P80" s="4"/>
+      <c r="Q80" s="4"/>
+      <c r="R80" s="4"/>
+      <c r="S80" s="4"/>
+      <c r="T80" s="4"/>
+      <c r="U80" s="4"/>
+      <c r="V80" s="4"/>
+      <c r="W80" s="4"/>
+      <c r="X80" s="4"/>
+      <c r="Y80" s="4"/>
+      <c r="Z80" s="4"/>
+      <c r="AA80" s="4"/>
+      <c r="AB80" s="4"/>
+      <c r="AC80" s="4"/>
+    </row>
+    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4"/>
+      <c r="O81" s="4"/>
+      <c r="P81" s="4"/>
+      <c r="Q81" s="4"/>
+      <c r="R81" s="4"/>
+      <c r="S81" s="4"/>
+      <c r="T81" s="4"/>
+      <c r="U81" s="4"/>
+      <c r="V81" s="4"/>
+      <c r="W81" s="4"/>
+      <c r="X81" s="4"/>
+      <c r="Y81" s="4"/>
+      <c r="Z81" s="4"/>
+      <c r="AA81" s="4"/>
+      <c r="AB81" s="4"/>
+      <c r="AC81" s="4"/>
+    </row>
+    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="4"/>
+      <c r="Q82" s="4"/>
+      <c r="R82" s="4"/>
+      <c r="S82" s="4"/>
+      <c r="T82" s="4"/>
+      <c r="U82" s="4"/>
+      <c r="V82" s="4"/>
+      <c r="W82" s="4"/>
+      <c r="X82" s="4"/>
+      <c r="Y82" s="4"/>
+      <c r="Z82" s="4"/>
+      <c r="AA82" s="4"/>
+      <c r="AB82" s="4"/>
+      <c r="AC82" s="4"/>
+    </row>
+    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="4"/>
+      <c r="O83" s="4"/>
+      <c r="P83" s="4"/>
+      <c r="Q83" s="4"/>
+      <c r="R83" s="4"/>
+      <c r="S83" s="4"/>
+      <c r="T83" s="4"/>
+      <c r="U83" s="4"/>
+      <c r="V83" s="4"/>
+      <c r="W83" s="4"/>
+      <c r="X83" s="4"/>
+      <c r="Y83" s="4"/>
+      <c r="Z83" s="4"/>
+      <c r="AA83" s="4"/>
+      <c r="AB83" s="4"/>
+      <c r="AC83" s="4"/>
+    </row>
+    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="4"/>
+      <c r="O84" s="4"/>
+      <c r="P84" s="4"/>
+      <c r="Q84" s="4"/>
+      <c r="R84" s="4"/>
+      <c r="S84" s="4"/>
+      <c r="T84" s="4"/>
+      <c r="U84" s="4"/>
+      <c r="V84" s="4"/>
+      <c r="W84" s="4"/>
+      <c r="X84" s="4"/>
+      <c r="Y84" s="4"/>
+      <c r="Z84" s="4"/>
+      <c r="AA84" s="4"/>
+      <c r="AB84" s="4"/>
+      <c r="AC84" s="4"/>
+    </row>
+    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="4"/>
+      <c r="O85" s="4"/>
+      <c r="P85" s="4"/>
+      <c r="Q85" s="4"/>
+      <c r="R85" s="4"/>
+      <c r="S85" s="4"/>
+      <c r="T85" s="4"/>
+      <c r="U85" s="4"/>
+      <c r="V85" s="4"/>
+      <c r="W85" s="4"/>
+      <c r="X85" s="4"/>
+      <c r="Y85" s="4"/>
+      <c r="Z85" s="4"/>
+      <c r="AA85" s="4"/>
+      <c r="AB85" s="4"/>
+      <c r="AC85" s="4"/>
+    </row>
+    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="4"/>
+      <c r="O86" s="4"/>
+      <c r="P86" s="4"/>
+      <c r="Q86" s="4"/>
+      <c r="R86" s="4"/>
+      <c r="S86" s="4"/>
+      <c r="T86" s="4"/>
+      <c r="U86" s="4"/>
+      <c r="V86" s="4"/>
+      <c r="W86" s="4"/>
+      <c r="X86" s="4"/>
+      <c r="Y86" s="4"/>
+      <c r="Z86" s="4"/>
+      <c r="AA86" s="4"/>
+      <c r="AB86" s="4"/>
+      <c r="AC86" s="4"/>
+    </row>
+    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="4"/>
+      <c r="O87" s="4"/>
+      <c r="P87" s="4"/>
+      <c r="Q87" s="4"/>
+      <c r="R87" s="4"/>
+      <c r="S87" s="4"/>
+      <c r="T87" s="4"/>
+      <c r="U87" s="4"/>
+      <c r="V87" s="4"/>
+      <c r="W87" s="4"/>
+      <c r="X87" s="4"/>
+      <c r="Y87" s="4"/>
+      <c r="Z87" s="4"/>
+      <c r="AA87" s="4"/>
+      <c r="AB87" s="4"/>
+      <c r="AC87" s="4"/>
+    </row>
+    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="4"/>
+      <c r="O88" s="4"/>
+      <c r="P88" s="4"/>
+      <c r="Q88" s="4"/>
+      <c r="R88" s="4"/>
+      <c r="S88" s="4"/>
+      <c r="T88" s="4"/>
+      <c r="U88" s="4"/>
+      <c r="V88" s="4"/>
+      <c r="W88" s="4"/>
+      <c r="X88" s="4"/>
+      <c r="Y88" s="4"/>
+      <c r="Z88" s="4"/>
+      <c r="AA88" s="4"/>
+      <c r="AB88" s="4"/>
+      <c r="AC88" s="4"/>
+    </row>
+    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="4"/>
+      <c r="O89" s="4"/>
+      <c r="P89" s="4"/>
+      <c r="Q89" s="4"/>
+      <c r="R89" s="4"/>
+      <c r="S89" s="4"/>
+      <c r="T89" s="4"/>
+      <c r="U89" s="4"/>
+      <c r="V89" s="4"/>
+      <c r="W89" s="4"/>
+      <c r="X89" s="4"/>
+      <c r="Y89" s="4"/>
+      <c r="Z89" s="4"/>
+      <c r="AA89" s="4"/>
+      <c r="AB89" s="4"/>
+      <c r="AC89" s="4"/>
+    </row>
+    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="4"/>
+      <c r="O90" s="4"/>
+      <c r="P90" s="4"/>
+      <c r="Q90" s="4"/>
+      <c r="R90" s="4"/>
+      <c r="S90" s="4"/>
+      <c r="T90" s="4"/>
+      <c r="U90" s="4"/>
+      <c r="V90" s="4"/>
+      <c r="W90" s="4"/>
+      <c r="X90" s="4"/>
+      <c r="Y90" s="4"/>
+      <c r="Z90" s="4"/>
+      <c r="AA90" s="4"/>
+      <c r="AB90" s="4"/>
+      <c r="AC90" s="4"/>
+    </row>
+    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="4"/>
+      <c r="O91" s="4"/>
+      <c r="P91" s="4"/>
+      <c r="Q91" s="4"/>
+      <c r="R91" s="4"/>
+      <c r="S91" s="4"/>
+      <c r="T91" s="4"/>
+      <c r="U91" s="4"/>
+      <c r="V91" s="4"/>
+      <c r="W91" s="4"/>
+      <c r="X91" s="4"/>
+      <c r="Y91" s="4"/>
+      <c r="Z91" s="4"/>
+      <c r="AA91" s="4"/>
+      <c r="AB91" s="4"/>
+      <c r="AC91" s="4"/>
+    </row>
+    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="4"/>
+      <c r="O92" s="4"/>
+      <c r="P92" s="4"/>
+      <c r="Q92" s="4"/>
+      <c r="R92" s="4"/>
+      <c r="S92" s="4"/>
+      <c r="T92" s="4"/>
+      <c r="U92" s="4"/>
+      <c r="V92" s="4"/>
+      <c r="W92" s="4"/>
+      <c r="X92" s="4"/>
+      <c r="Y92" s="4"/>
+      <c r="Z92" s="4"/>
+      <c r="AA92" s="4"/>
+      <c r="AB92" s="4"/>
+      <c r="AC92" s="4"/>
+    </row>
+    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="4"/>
+      <c r="O93" s="4"/>
+      <c r="P93" s="4"/>
+      <c r="Q93" s="4"/>
+      <c r="R93" s="4"/>
+      <c r="S93" s="4"/>
+      <c r="T93" s="4"/>
+      <c r="U93" s="4"/>
+      <c r="V93" s="4"/>
+      <c r="W93" s="4"/>
+      <c r="X93" s="4"/>
+      <c r="Y93" s="4"/>
+      <c r="Z93" s="4"/>
+      <c r="AA93" s="4"/>
+      <c r="AB93" s="4"/>
+      <c r="AC93" s="4"/>
+    </row>
+    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="4"/>
+      <c r="O94" s="4"/>
+      <c r="P94" s="4"/>
+      <c r="Q94" s="4"/>
+      <c r="R94" s="4"/>
+      <c r="S94" s="4"/>
+      <c r="T94" s="4"/>
+      <c r="U94" s="4"/>
+      <c r="V94" s="4"/>
+      <c r="W94" s="4"/>
+      <c r="X94" s="4"/>
+      <c r="Y94" s="4"/>
+      <c r="Z94" s="4"/>
+      <c r="AA94" s="4"/>
+      <c r="AB94" s="4"/>
+      <c r="AC94" s="4"/>
+    </row>
+    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="4"/>
+      <c r="O95" s="4"/>
+      <c r="P95" s="4"/>
+      <c r="Q95" s="4"/>
+      <c r="R95" s="4"/>
+      <c r="S95" s="4"/>
+      <c r="T95" s="4"/>
+      <c r="U95" s="4"/>
+      <c r="V95" s="4"/>
+      <c r="W95" s="4"/>
+      <c r="X95" s="4"/>
+      <c r="Y95" s="4"/>
+      <c r="Z95" s="4"/>
+      <c r="AA95" s="4"/>
+      <c r="AB95" s="4"/>
+      <c r="AC95" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A32:L37"/>
+    <mergeCell ref="A52:L57"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:C29 G9:G29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:C49 G9:G49">
       <formula1>YesNo</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D49">
       <formula1>Priority</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E49">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>
@@ -3213,14 +4029,14 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3231,7 +4047,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3242,7 +4058,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>11</v>
       </c>

--- a/documentation/workout-buddy-product-backlog.xlsx
+++ b/documentation/workout-buddy-product-backlog.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santo_000\Documents\GitHub\EECS448_Project3\documentation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13170" yWindow="-210" windowWidth="23250" windowHeight="13170" tabRatio="500"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="11520" windowHeight="9660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="62">
   <si>
     <t>Task Name</t>
   </si>
@@ -180,6 +175,42 @@
   </si>
   <si>
     <t>Delete Routine</t>
+  </si>
+  <si>
+    <t>Add Calendar Event</t>
+  </si>
+  <si>
+    <t>Add Routine Days to Calendar Event</t>
+  </si>
+  <si>
+    <t>Delete Routine/Delete All Calendar Events</t>
+  </si>
+  <si>
+    <t>Exercise Database/Images</t>
+  </si>
+  <si>
+    <t>Analytics: Improvement Analysis</t>
+  </si>
+  <si>
+    <t>Analytics: Strengh Growth Analysis</t>
+  </si>
+  <si>
+    <t>Analytics: Workout History</t>
+  </si>
+  <si>
+    <t>Documentation/Maintenance Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentation/Deployment Plan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentation/User's Manual </t>
+  </si>
+  <si>
+    <t>Start Routine</t>
+  </si>
+  <si>
+    <t>About/Contact Page</t>
   </si>
 </sst>
 </file>
@@ -269,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -279,7 +310,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -287,6 +317,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -676,25 +717,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC95"/>
+  <dimension ref="A1:AC99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.875" customWidth="1"/>
+    <col min="1" max="1" width="36.59765625" style="15" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="13.75" customWidth="1"/>
-    <col min="4" max="4" width="15.25" customWidth="1"/>
-    <col min="5" max="5" width="16.75" customWidth="1"/>
-    <col min="6" max="6" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="13.69921875" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" customWidth="1"/>
+    <col min="5" max="5" width="16.69921875" customWidth="1"/>
+    <col min="6" max="6" width="13.69921875" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A1" s="14"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -724,7 +765,7 @@
       <c r="AB1" s="4"/>
       <c r="AC1" s="4"/>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -754,8 +795,8 @@
       <c r="AB2" s="4"/>
       <c r="AC2" s="4"/>
     </row>
-    <row r="3" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:29" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A3" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="4"/>
@@ -787,8 +828,8 @@
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A4" s="14"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -818,8 +859,8 @@
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A5" s="14"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -849,8 +890,8 @@
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -880,8 +921,8 @@
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -911,7 +952,7 @@
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
     </row>
-    <row r="8" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -956,7 +997,7 @@
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
     </row>
-    <row r="9" spans="1:29" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -997,7 +1038,7 @@
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
     </row>
-    <row r="10" spans="1:29" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1040,7 +1081,7 @@
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
     </row>
-    <row r="11" spans="1:29" s="10" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
@@ -1081,7 +1122,7 @@
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
     </row>
-    <row r="12" spans="1:29" s="8" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" s="7" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -1122,7 +1163,7 @@
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
     </row>
-    <row r="13" spans="1:29" s="8" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" s="7" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -1163,7 +1204,7 @@
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
     </row>
-    <row r="14" spans="1:29" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -1206,7 +1247,7 @@
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
     </row>
-    <row r="15" spans="1:29" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
@@ -1247,7 +1288,7 @@
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
     </row>
-    <row r="16" spans="1:29" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -1288,7 +1329,7 @@
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
     </row>
-    <row r="17" spans="1:29" s="10" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
@@ -1329,7 +1370,7 @@
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
     </row>
-    <row r="18" spans="1:29" s="10" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -1370,7 +1411,7 @@
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
     </row>
-    <row r="19" spans="1:29" s="11" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>35</v>
       </c>
@@ -1411,7 +1452,7 @@
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
     </row>
-    <row r="20" spans="1:29" s="12" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" s="11" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -1452,7 +1493,7 @@
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
     </row>
-    <row r="21" spans="1:29" s="12" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" s="11" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -1493,7 +1534,7 @@
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
     </row>
-    <row r="22" spans="1:29" s="12" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" s="11" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
@@ -1534,7 +1575,7 @@
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
     </row>
-    <row r="23" spans="1:29" s="12" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" s="11" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
@@ -1575,7 +1616,7 @@
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
     </row>
-    <row r="24" spans="1:29" s="12" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" s="11" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
@@ -1616,7 +1657,7 @@
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
     </row>
-    <row r="25" spans="1:29" s="12" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" s="11" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
@@ -1657,7 +1698,7 @@
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
     </row>
-    <row r="26" spans="1:29" s="12" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" s="11" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
@@ -1698,7 +1739,7 @@
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
     </row>
-    <row r="27" spans="1:29" s="12" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" s="11" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
@@ -1739,7 +1780,7 @@
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
     </row>
-    <row r="28" spans="1:29" s="12" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" s="11" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>37</v>
       </c>
@@ -1780,9 +1821,9 @@
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
     </row>
-    <row r="29" spans="1:29" s="12" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" s="13" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
@@ -1796,7 +1837,7 @@
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
@@ -1821,9 +1862,9 @@
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
     </row>
-    <row r="30" spans="1:29" s="12" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" s="11" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
@@ -1862,9 +1903,9 @@
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
     </row>
-    <row r="31" spans="1:29" s="12" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" s="11" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
@@ -1903,9 +1944,9 @@
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
     </row>
-    <row r="32" spans="1:29" s="12" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" s="12" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
@@ -1915,11 +1956,11 @@
         <v>9</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
@@ -1944,9 +1985,9 @@
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
     </row>
-    <row r="33" spans="1:29" s="12" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" s="12" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
@@ -1960,7 +2001,7 @@
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
@@ -1985,9 +2026,9 @@
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
     </row>
-    <row r="34" spans="1:29" s="12" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" s="11" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
@@ -2001,7 +2042,7 @@
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
@@ -2026,9 +2067,9 @@
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
     </row>
-    <row r="35" spans="1:29" s="12" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" s="12" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
@@ -2042,7 +2083,7 @@
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
@@ -2067,9 +2108,9 @@
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
     </row>
-    <row r="36" spans="1:29" s="12" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" s="11" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
@@ -2079,11 +2120,11 @@
         <v>9</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
@@ -2108,9 +2149,9 @@
       <c r="AB36" s="4"/>
       <c r="AC36" s="4"/>
     </row>
-    <row r="37" spans="1:29" s="12" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" s="11" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
@@ -2124,7 +2165,7 @@
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
@@ -2149,9 +2190,9 @@
       <c r="AB37" s="4"/>
       <c r="AC37" s="4"/>
     </row>
-    <row r="38" spans="1:29" s="12" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" s="11" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
@@ -2161,11 +2202,11 @@
         <v>9</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
@@ -2190,23 +2231,23 @@
       <c r="AB38" s="4"/>
       <c r="AC38" s="4"/>
     </row>
-    <row r="39" spans="1:29" s="12" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" s="11" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
@@ -2231,9 +2272,9 @@
       <c r="AB39" s="4"/>
       <c r="AC39" s="4"/>
     </row>
-    <row r="40" spans="1:29" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" s="11" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
@@ -2247,7 +2288,7 @@
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
@@ -2272,15 +2313,23 @@
       <c r="AB40" s="4"/>
       <c r="AC40" s="4"/>
     </row>
-    <row r="41" spans="1:29" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
+    <row r="41" spans="1:29" s="11" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
+      <c r="C41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
@@ -2305,15 +2354,23 @@
       <c r="AB41" s="4"/>
       <c r="AC41" s="4"/>
     </row>
-    <row r="42" spans="1:29" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
+    <row r="42" spans="1:29" s="11" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
+      <c r="C42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
@@ -2338,12 +2395,20 @@
       <c r="AB42" s="4"/>
       <c r="AC42" s="4"/>
     </row>
-    <row r="43" spans="1:29" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
+    <row r="43" spans="1:29" s="11" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
+      <c r="C43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2" t="s">
         <v>8</v>
@@ -2371,15 +2436,23 @@
       <c r="AB43" s="4"/>
       <c r="AC43" s="4"/>
     </row>
-    <row r="44" spans="1:29" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
+    <row r="44" spans="1:29" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
+      <c r="C44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
@@ -2404,15 +2477,23 @@
       <c r="AB44" s="4"/>
       <c r="AC44" s="4"/>
     </row>
-    <row r="45" spans="1:29" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
+    <row r="45" spans="1:29" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
+      <c r="C45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
@@ -2437,15 +2518,23 @@
       <c r="AB45" s="4"/>
       <c r="AC45" s="4"/>
     </row>
-    <row r="46" spans="1:29" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
+    <row r="46" spans="1:29" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
+      <c r="C46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
@@ -2470,15 +2559,23 @@
       <c r="AB46" s="4"/>
       <c r="AC46" s="4"/>
     </row>
-    <row r="47" spans="1:29" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
+    <row r="47" spans="1:29" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
+      <c r="C47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
@@ -2503,15 +2600,23 @@
       <c r="AB47" s="4"/>
       <c r="AC47" s="4"/>
     </row>
-    <row r="48" spans="1:29" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
+    <row r="48" spans="1:29" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
+      <c r="C48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
@@ -2536,15 +2641,23 @@
       <c r="AB48" s="4"/>
       <c r="AC48" s="4"/>
     </row>
-    <row r="49" spans="1:29" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
+    <row r="49" spans="1:29" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="15" t="s">
+        <v>57</v>
+      </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
+      <c r="C49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
@@ -2569,14 +2682,24 @@
       <c r="AB49" s="4"/>
       <c r="AC49" s="4"/>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
+    <row r="50" spans="1:29" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
@@ -2600,14 +2723,24 @@
       <c r="AB50" s="4"/>
       <c r="AC50" s="4"/>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
+    <row r="51" spans="1:29" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
@@ -2631,318 +2764,328 @@
       <c r="AB51" s="4"/>
       <c r="AC51" s="4"/>
     </row>
-    <row r="52" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="13"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="13"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="6"/>
-      <c r="O52" s="6"/>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="6"/>
-      <c r="R52" s="6"/>
-      <c r="S52" s="6"/>
-      <c r="T52" s="6"/>
-      <c r="U52" s="6"/>
-      <c r="V52" s="6"/>
-      <c r="W52" s="6"/>
-      <c r="X52" s="6"/>
-      <c r="Y52" s="6"/>
-      <c r="Z52" s="6"/>
-      <c r="AA52" s="6"/>
-      <c r="AB52" s="6"/>
-      <c r="AC52" s="6"/>
-    </row>
-    <row r="53" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="13"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="9"/>
-      <c r="N53" s="6"/>
-      <c r="O53" s="6"/>
-      <c r="P53" s="6"/>
-      <c r="Q53" s="6"/>
-      <c r="R53" s="6"/>
-      <c r="S53" s="6"/>
-      <c r="T53" s="6"/>
-      <c r="U53" s="6"/>
-      <c r="V53" s="6"/>
-      <c r="W53" s="6"/>
-      <c r="X53" s="6"/>
-      <c r="Y53" s="6"/>
-      <c r="Z53" s="6"/>
-      <c r="AA53" s="6"/>
-      <c r="AB53" s="6"/>
-      <c r="AC53" s="6"/>
-    </row>
-    <row r="54" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="9"/>
-      <c r="N54" s="6"/>
-      <c r="O54" s="6"/>
-      <c r="P54" s="6"/>
-      <c r="Q54" s="6"/>
-      <c r="R54" s="6"/>
-      <c r="S54" s="6"/>
-      <c r="T54" s="6"/>
-      <c r="U54" s="6"/>
-      <c r="V54" s="6"/>
-      <c r="W54" s="6"/>
-      <c r="X54" s="6"/>
-      <c r="Y54" s="6"/>
-      <c r="Z54" s="6"/>
-      <c r="AA54" s="6"/>
-      <c r="AB54" s="6"/>
-      <c r="AC54" s="6"/>
-    </row>
-    <row r="55" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="13"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
-      <c r="L55" s="13"/>
-      <c r="M55" s="9"/>
-      <c r="N55" s="6"/>
-      <c r="O55" s="6"/>
-      <c r="P55" s="6"/>
-      <c r="Q55" s="6"/>
-      <c r="R55" s="6"/>
-      <c r="S55" s="6"/>
-      <c r="T55" s="6"/>
-      <c r="U55" s="6"/>
-      <c r="V55" s="6"/>
-      <c r="W55" s="6"/>
-      <c r="X55" s="6"/>
-      <c r="Y55" s="6"/>
-      <c r="Z55" s="6"/>
-      <c r="AA55" s="6"/>
-      <c r="AB55" s="6"/>
-      <c r="AC55" s="6"/>
-    </row>
-    <row r="56" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="13"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="9"/>
-      <c r="N56" s="6"/>
-      <c r="O56" s="6"/>
-      <c r="P56" s="6"/>
-      <c r="Q56" s="6"/>
-      <c r="R56" s="6"/>
-      <c r="S56" s="6"/>
-      <c r="T56" s="6"/>
-      <c r="U56" s="6"/>
-      <c r="V56" s="6"/>
-      <c r="W56" s="6"/>
-      <c r="X56" s="6"/>
-      <c r="Y56" s="6"/>
-      <c r="Z56" s="6"/>
-      <c r="AA56" s="6"/>
-      <c r="AB56" s="6"/>
-      <c r="AC56" s="6"/>
-    </row>
-    <row r="57" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="13"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="9"/>
-      <c r="N57" s="6"/>
-      <c r="O57" s="6"/>
-      <c r="P57" s="6"/>
-      <c r="Q57" s="6"/>
-      <c r="R57" s="6"/>
-      <c r="S57" s="6"/>
-      <c r="T57" s="6"/>
-      <c r="U57" s="6"/>
-      <c r="V57" s="6"/>
-      <c r="W57" s="6"/>
-      <c r="X57" s="6"/>
-      <c r="Y57" s="6"/>
-      <c r="Z57" s="6"/>
-      <c r="AA57" s="6"/>
-      <c r="AB57" s="6"/>
-      <c r="AC57" s="6"/>
-    </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="4"/>
-      <c r="O58" s="4"/>
-      <c r="P58" s="4"/>
-      <c r="Q58" s="4"/>
-      <c r="R58" s="4"/>
-      <c r="S58" s="4"/>
-      <c r="T58" s="4"/>
-      <c r="U58" s="4"/>
-      <c r="V58" s="4"/>
-      <c r="W58" s="4"/>
-      <c r="X58" s="4"/>
-      <c r="Y58" s="4"/>
-      <c r="Z58" s="4"/>
-      <c r="AA58" s="4"/>
-      <c r="AB58" s="4"/>
-      <c r="AC58" s="4"/>
-    </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4"/>
-      <c r="O59" s="4"/>
-      <c r="P59" s="4"/>
-      <c r="Q59" s="4"/>
-      <c r="R59" s="4"/>
-      <c r="S59" s="4"/>
-      <c r="T59" s="4"/>
-      <c r="U59" s="4"/>
-      <c r="V59" s="4"/>
-      <c r="W59" s="4"/>
-      <c r="X59" s="4"/>
-      <c r="Y59" s="4"/>
-      <c r="Z59" s="4"/>
-      <c r="AA59" s="4"/>
-      <c r="AB59" s="4"/>
-      <c r="AC59" s="4"/>
-    </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4"/>
-      <c r="O60" s="4"/>
-      <c r="P60" s="4"/>
-      <c r="Q60" s="4"/>
-      <c r="R60" s="4"/>
-      <c r="S60" s="4"/>
-      <c r="T60" s="4"/>
-      <c r="U60" s="4"/>
-      <c r="V60" s="4"/>
-      <c r="W60" s="4"/>
-      <c r="X60" s="4"/>
-      <c r="Y60" s="4"/>
-      <c r="Z60" s="4"/>
-      <c r="AA60" s="4"/>
-      <c r="AB60" s="4"/>
-      <c r="AC60" s="4"/>
-    </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="4"/>
-      <c r="O61" s="4"/>
-      <c r="P61" s="4"/>
-      <c r="Q61" s="4"/>
-      <c r="R61" s="4"/>
-      <c r="S61" s="4"/>
-      <c r="T61" s="4"/>
-      <c r="U61" s="4"/>
-      <c r="V61" s="4"/>
-      <c r="W61" s="4"/>
-      <c r="X61" s="4"/>
-      <c r="Y61" s="4"/>
-      <c r="Z61" s="4"/>
-      <c r="AA61" s="4"/>
-      <c r="AB61" s="4"/>
-      <c r="AC61" s="4"/>
-    </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
+    <row r="52" spans="1:29" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="4"/>
+      <c r="U52" s="4"/>
+      <c r="V52" s="4"/>
+      <c r="W52" s="4"/>
+      <c r="X52" s="4"/>
+      <c r="Y52" s="4"/>
+      <c r="Z52" s="4"/>
+      <c r="AA52" s="4"/>
+      <c r="AB52" s="4"/>
+      <c r="AC52" s="4"/>
+    </row>
+    <row r="53" spans="1:29" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="4"/>
+      <c r="U53" s="4"/>
+      <c r="V53" s="4"/>
+      <c r="W53" s="4"/>
+      <c r="X53" s="4"/>
+      <c r="Y53" s="4"/>
+      <c r="Z53" s="4"/>
+      <c r="AA53" s="4"/>
+      <c r="AB53" s="4"/>
+      <c r="AC53" s="4"/>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A54" s="14"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
+      <c r="S54" s="4"/>
+      <c r="T54" s="4"/>
+      <c r="U54" s="4"/>
+      <c r="V54" s="4"/>
+      <c r="W54" s="4"/>
+      <c r="X54" s="4"/>
+      <c r="Y54" s="4"/>
+      <c r="Z54" s="4"/>
+      <c r="AA54" s="4"/>
+      <c r="AB54" s="4"/>
+      <c r="AC54" s="4"/>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A55" s="14"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4"/>
+      <c r="S55" s="4"/>
+      <c r="T55" s="4"/>
+      <c r="U55" s="4"/>
+      <c r="V55" s="4"/>
+      <c r="W55" s="4"/>
+      <c r="X55" s="4"/>
+      <c r="Y55" s="4"/>
+      <c r="Z55" s="4"/>
+      <c r="AA55" s="4"/>
+      <c r="AB55" s="4"/>
+      <c r="AC55" s="4"/>
+    </row>
+    <row r="56" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="17"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="17"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="5"/>
+      <c r="W56" s="5"/>
+      <c r="X56" s="5"/>
+      <c r="Y56" s="5"/>
+      <c r="Z56" s="5"/>
+      <c r="AA56" s="5"/>
+      <c r="AB56" s="5"/>
+      <c r="AC56" s="5"/>
+    </row>
+    <row r="57" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="17"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
+      <c r="S57" s="5"/>
+      <c r="T57" s="5"/>
+      <c r="U57" s="5"/>
+      <c r="V57" s="5"/>
+      <c r="W57" s="5"/>
+      <c r="X57" s="5"/>
+      <c r="Y57" s="5"/>
+      <c r="Z57" s="5"/>
+      <c r="AA57" s="5"/>
+      <c r="AB57" s="5"/>
+      <c r="AC57" s="5"/>
+    </row>
+    <row r="58" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="17"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="5"/>
+      <c r="S58" s="5"/>
+      <c r="T58" s="5"/>
+      <c r="U58" s="5"/>
+      <c r="V58" s="5"/>
+      <c r="W58" s="5"/>
+      <c r="X58" s="5"/>
+      <c r="Y58" s="5"/>
+      <c r="Z58" s="5"/>
+      <c r="AA58" s="5"/>
+      <c r="AB58" s="5"/>
+      <c r="AC58" s="5"/>
+    </row>
+    <row r="59" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="17"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="17"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5"/>
+      <c r="R59" s="5"/>
+      <c r="S59" s="5"/>
+      <c r="T59" s="5"/>
+      <c r="U59" s="5"/>
+      <c r="V59" s="5"/>
+      <c r="W59" s="5"/>
+      <c r="X59" s="5"/>
+      <c r="Y59" s="5"/>
+      <c r="Z59" s="5"/>
+      <c r="AA59" s="5"/>
+      <c r="AB59" s="5"/>
+      <c r="AC59" s="5"/>
+    </row>
+    <row r="60" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="17"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="17"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="5"/>
+      <c r="R60" s="5"/>
+      <c r="S60" s="5"/>
+      <c r="T60" s="5"/>
+      <c r="U60" s="5"/>
+      <c r="V60" s="5"/>
+      <c r="W60" s="5"/>
+      <c r="X60" s="5"/>
+      <c r="Y60" s="5"/>
+      <c r="Z60" s="5"/>
+      <c r="AA60" s="5"/>
+      <c r="AB60" s="5"/>
+      <c r="AC60" s="5"/>
+    </row>
+    <row r="61" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="17"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="17"/>
+      <c r="L61" s="17"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="5"/>
+      <c r="O61" s="5"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="5"/>
+      <c r="R61" s="5"/>
+      <c r="S61" s="5"/>
+      <c r="T61" s="5"/>
+      <c r="U61" s="5"/>
+      <c r="V61" s="5"/>
+      <c r="W61" s="5"/>
+      <c r="X61" s="5"/>
+      <c r="Y61" s="5"/>
+      <c r="Z61" s="5"/>
+      <c r="AA61" s="5"/>
+      <c r="AB61" s="5"/>
+      <c r="AC61" s="5"/>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A62" s="14"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -2972,8 +3115,8 @@
       <c r="AB62" s="4"/>
       <c r="AC62" s="4"/>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A63" s="14"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -3003,8 +3146,8 @@
       <c r="AB63" s="4"/>
       <c r="AC63" s="4"/>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A64" s="14"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -3034,8 +3177,8 @@
       <c r="AB64" s="4"/>
       <c r="AC64" s="4"/>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A65" s="14"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -3065,8 +3208,8 @@
       <c r="AB65" s="4"/>
       <c r="AC65" s="4"/>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A66" s="14"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -3096,8 +3239,8 @@
       <c r="AB66" s="4"/>
       <c r="AC66" s="4"/>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A67" s="14"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -3127,8 +3270,8 @@
       <c r="AB67" s="4"/>
       <c r="AC67" s="4"/>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
+    <row r="68" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A68" s="14"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -3158,8 +3301,8 @@
       <c r="AB68" s="4"/>
       <c r="AC68" s="4"/>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
+    <row r="69" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A69" s="14"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -3189,8 +3332,8 @@
       <c r="AB69" s="4"/>
       <c r="AC69" s="4"/>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A70" s="14"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -3220,8 +3363,8 @@
       <c r="AB70" s="4"/>
       <c r="AC70" s="4"/>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A71" s="14"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -3251,8 +3394,8 @@
       <c r="AB71" s="4"/>
       <c r="AC71" s="4"/>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
+    <row r="72" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A72" s="14"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -3282,8 +3425,8 @@
       <c r="AB72" s="4"/>
       <c r="AC72" s="4"/>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
+    <row r="73" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A73" s="14"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -3313,8 +3456,8 @@
       <c r="AB73" s="4"/>
       <c r="AC73" s="4"/>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
+    <row r="74" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A74" s="14"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -3344,8 +3487,8 @@
       <c r="AB74" s="4"/>
       <c r="AC74" s="4"/>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
+    <row r="75" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A75" s="14"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -3375,8 +3518,8 @@
       <c r="AB75" s="4"/>
       <c r="AC75" s="4"/>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
+    <row r="76" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A76" s="14"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -3406,8 +3549,8 @@
       <c r="AB76" s="4"/>
       <c r="AC76" s="4"/>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
+    <row r="77" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A77" s="14"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -3437,8 +3580,8 @@
       <c r="AB77" s="4"/>
       <c r="AC77" s="4"/>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A78" s="4"/>
+    <row r="78" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A78" s="14"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
@@ -3468,8 +3611,8 @@
       <c r="AB78" s="4"/>
       <c r="AC78" s="4"/>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A79" s="4"/>
+    <row r="79" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A79" s="14"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -3499,8 +3642,8 @@
       <c r="AB79" s="4"/>
       <c r="AC79" s="4"/>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A80" s="4"/>
+    <row r="80" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A80" s="14"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -3530,8 +3673,8 @@
       <c r="AB80" s="4"/>
       <c r="AC80" s="4"/>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A81" s="4"/>
+    <row r="81" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A81" s="14"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
@@ -3561,8 +3704,8 @@
       <c r="AB81" s="4"/>
       <c r="AC81" s="4"/>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A82" s="4"/>
+    <row r="82" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A82" s="14"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -3592,8 +3735,8 @@
       <c r="AB82" s="4"/>
       <c r="AC82" s="4"/>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A83" s="4"/>
+    <row r="83" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A83" s="14"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -3623,8 +3766,8 @@
       <c r="AB83" s="4"/>
       <c r="AC83" s="4"/>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A84" s="4"/>
+    <row r="84" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A84" s="14"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -3654,8 +3797,8 @@
       <c r="AB84" s="4"/>
       <c r="AC84" s="4"/>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A85" s="4"/>
+    <row r="85" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A85" s="14"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -3685,8 +3828,8 @@
       <c r="AB85" s="4"/>
       <c r="AC85" s="4"/>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A86" s="4"/>
+    <row r="86" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A86" s="14"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -3716,8 +3859,8 @@
       <c r="AB86" s="4"/>
       <c r="AC86" s="4"/>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A87" s="4"/>
+    <row r="87" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A87" s="14"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -3747,8 +3890,8 @@
       <c r="AB87" s="4"/>
       <c r="AC87" s="4"/>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A88" s="4"/>
+    <row r="88" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A88" s="14"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
@@ -3778,8 +3921,8 @@
       <c r="AB88" s="4"/>
       <c r="AC88" s="4"/>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A89" s="4"/>
+    <row r="89" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A89" s="14"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -3809,8 +3952,8 @@
       <c r="AB89" s="4"/>
       <c r="AC89" s="4"/>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A90" s="4"/>
+    <row r="90" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A90" s="14"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
@@ -3840,8 +3983,8 @@
       <c r="AB90" s="4"/>
       <c r="AC90" s="4"/>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A91" s="4"/>
+    <row r="91" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A91" s="14"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -3871,8 +4014,8 @@
       <c r="AB91" s="4"/>
       <c r="AC91" s="4"/>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A92" s="4"/>
+    <row r="92" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A92" s="14"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -3902,8 +4045,8 @@
       <c r="AB92" s="4"/>
       <c r="AC92" s="4"/>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A93" s="4"/>
+    <row r="93" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A93" s="14"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -3933,8 +4076,8 @@
       <c r="AB93" s="4"/>
       <c r="AC93" s="4"/>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A94" s="4"/>
+    <row r="94" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A94" s="14"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
@@ -3964,8 +4107,8 @@
       <c r="AB94" s="4"/>
       <c r="AC94" s="4"/>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A95" s="4"/>
+    <row r="95" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A95" s="14"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
@@ -3995,18 +4138,142 @@
       <c r="AB95" s="4"/>
       <c r="AC95" s="4"/>
     </row>
+    <row r="96" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A96" s="14"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="4"/>
+      <c r="N96" s="4"/>
+      <c r="O96" s="4"/>
+      <c r="P96" s="4"/>
+      <c r="Q96" s="4"/>
+      <c r="R96" s="4"/>
+      <c r="S96" s="4"/>
+      <c r="T96" s="4"/>
+      <c r="U96" s="4"/>
+      <c r="V96" s="4"/>
+      <c r="W96" s="4"/>
+      <c r="X96" s="4"/>
+      <c r="Y96" s="4"/>
+      <c r="Z96" s="4"/>
+      <c r="AA96" s="4"/>
+      <c r="AB96" s="4"/>
+      <c r="AC96" s="4"/>
+    </row>
+    <row r="97" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A97" s="14"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
+      <c r="L97" s="4"/>
+      <c r="M97" s="4"/>
+      <c r="N97" s="4"/>
+      <c r="O97" s="4"/>
+      <c r="P97" s="4"/>
+      <c r="Q97" s="4"/>
+      <c r="R97" s="4"/>
+      <c r="S97" s="4"/>
+      <c r="T97" s="4"/>
+      <c r="U97" s="4"/>
+      <c r="V97" s="4"/>
+      <c r="W97" s="4"/>
+      <c r="X97" s="4"/>
+      <c r="Y97" s="4"/>
+      <c r="Z97" s="4"/>
+      <c r="AA97" s="4"/>
+      <c r="AB97" s="4"/>
+      <c r="AC97" s="4"/>
+    </row>
+    <row r="98" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A98" s="14"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="4"/>
+      <c r="M98" s="4"/>
+      <c r="N98" s="4"/>
+      <c r="O98" s="4"/>
+      <c r="P98" s="4"/>
+      <c r="Q98" s="4"/>
+      <c r="R98" s="4"/>
+      <c r="S98" s="4"/>
+      <c r="T98" s="4"/>
+      <c r="U98" s="4"/>
+      <c r="V98" s="4"/>
+      <c r="W98" s="4"/>
+      <c r="X98" s="4"/>
+      <c r="Y98" s="4"/>
+      <c r="Z98" s="4"/>
+      <c r="AA98" s="4"/>
+      <c r="AB98" s="4"/>
+      <c r="AC98" s="4"/>
+    </row>
+    <row r="99" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A99" s="14"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="4"/>
+      <c r="L99" s="4"/>
+      <c r="M99" s="4"/>
+      <c r="N99" s="4"/>
+      <c r="O99" s="4"/>
+      <c r="P99" s="4"/>
+      <c r="Q99" s="4"/>
+      <c r="R99" s="4"/>
+      <c r="S99" s="4"/>
+      <c r="T99" s="4"/>
+      <c r="U99" s="4"/>
+      <c r="V99" s="4"/>
+      <c r="W99" s="4"/>
+      <c r="X99" s="4"/>
+      <c r="Y99" s="4"/>
+      <c r="Z99" s="4"/>
+      <c r="AA99" s="4"/>
+      <c r="AB99" s="4"/>
+      <c r="AC99" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A52:L57"/>
+    <mergeCell ref="A56:L61"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:C49 G9:G49">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G53 B9:C53">
       <formula1>YesNo</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D49">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D53">
       <formula1>Priority</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E49">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E53">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>
@@ -4029,14 +4296,14 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -4047,7 +4314,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -4058,7 +4325,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>11</v>
       </c>

--- a/documentation/workout-buddy-product-backlog.xlsx
+++ b/documentation/workout-buddy-product-backlog.xlsx
@@ -24,8 +24,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Dilesh</author>
+  </authors>
+  <commentList>
+    <comment ref="F8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dilesh:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="62">
   <si>
     <t>Task Name</t>
   </si>
@@ -217,7 +251,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -251,6 +285,26 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -300,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -329,6 +383,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -358,8 +433,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>145</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>83939</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>53459</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -716,27 +791,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.59765625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="1" max="1" width="12.796875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="39.59765625" style="21" customWidth="1"/>
     <col min="3" max="3" width="13.69921875" customWidth="1"/>
     <col min="4" max="4" width="15.19921875" customWidth="1"/>
-    <col min="5" max="5" width="16.69921875" customWidth="1"/>
+    <col min="5" max="5" width="13.8984375" customWidth="1"/>
     <col min="6" max="6" width="13.69921875" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="14"/>
-      <c r="B1" s="4"/>
+      <c r="B1" s="18"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -766,7 +841,7 @@
       <c r="AC1" s="4"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B2" s="4"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -796,10 +871,8 @@
       <c r="AC2" s="4"/>
     </row>
     <row r="3" spans="1:29" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A3" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="4"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -828,9 +901,11 @@
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A4" s="14"/>
-      <c r="B4" s="4"/>
+      <c r="B4" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -861,7 +936,7 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
-      <c r="B5" s="4"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -892,7 +967,7 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
-      <c r="B6" s="4"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -923,7 +998,7 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
-      <c r="B7" s="4"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -954,19 +1029,19 @@
     </row>
     <row r="8" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="19" t="s">
         <v>0</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>3</v>
@@ -998,19 +1073,19 @@
       <c r="AC8" s="4"/>
     </row>
     <row r="9" spans="1:29" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="22">
+        <v>1</v>
+      </c>
+      <c r="B9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
         <v>7</v>
@@ -1039,19 +1114,19 @@
       <c r="AC9" s="4"/>
     </row>
     <row r="10" spans="1:29" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="22">
+        <v>2</v>
+      </c>
+      <c r="B10" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
         <v>20</v>
       </c>
@@ -1082,22 +1157,24 @@
       <c r="AC10" s="4"/>
     </row>
     <row r="11" spans="1:29" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="2"/>
+      <c r="A11" s="22">
+        <v>3</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>19</v>
+      </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="G11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -1123,22 +1200,22 @@
       <c r="AC11" s="4"/>
     </row>
     <row r="12" spans="1:29" s="7" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="2"/>
+      <c r="A12" s="22">
+        <v>4</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>36</v>
+      </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -1164,22 +1241,22 @@
       <c r="AC12" s="4"/>
     </row>
     <row r="13" spans="1:29" s="7" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="2"/>
+      <c r="A13" s="22">
+        <v>5</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>21</v>
+      </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -1205,22 +1282,20 @@
       <c r="AC13" s="4"/>
     </row>
     <row r="14" spans="1:29" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="2"/>
+      <c r="A14" s="22">
+        <v>6</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>34</v>
+      </c>
       <c r="C14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
         <v>7</v>
       </c>
@@ -1248,19 +1323,19 @@
       <c r="AC14" s="4"/>
     </row>
     <row r="15" spans="1:29" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="2"/>
+      <c r="A15" s="22">
+        <v>7</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="C15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
         <v>7</v>
@@ -1289,19 +1364,19 @@
       <c r="AC15" s="4"/>
     </row>
     <row r="16" spans="1:29" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="2"/>
+      <c r="A16" s="22">
+        <v>8</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>35</v>
+      </c>
       <c r="C16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
         <v>7</v>
@@ -1330,19 +1405,19 @@
       <c r="AC16" s="4"/>
     </row>
     <row r="17" spans="1:29" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="22">
+        <v>9</v>
+      </c>
+      <c r="B17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
         <v>7</v>
@@ -1371,19 +1446,19 @@
       <c r="AC17" s="4"/>
     </row>
     <row r="18" spans="1:29" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="2"/>
+      <c r="A18" s="22">
+        <v>10</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>23</v>
+      </c>
       <c r="C18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
         <v>7</v>
@@ -1412,19 +1487,19 @@
       <c r="AC18" s="4"/>
     </row>
     <row r="19" spans="1:29" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="2"/>
+      <c r="A19" s="22">
+        <v>11</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>25</v>
+      </c>
       <c r="C19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
         <v>7</v>
@@ -1453,19 +1528,19 @@
       <c r="AC19" s="4"/>
     </row>
     <row r="20" spans="1:29" s="11" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="2"/>
+      <c r="A20" s="22">
+        <v>12</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>24</v>
+      </c>
       <c r="C20" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
         <v>7</v>
@@ -1494,19 +1569,19 @@
       <c r="AC20" s="4"/>
     </row>
     <row r="21" spans="1:29" s="11" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="2"/>
+      <c r="A21" s="22">
+        <v>14</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>30</v>
+      </c>
       <c r="C21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2" t="s">
         <v>7</v>
@@ -1535,19 +1610,19 @@
       <c r="AC21" s="4"/>
     </row>
     <row r="22" spans="1:29" s="11" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="2"/>
+      <c r="A22" s="22">
+        <v>15</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>31</v>
+      </c>
       <c r="C22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2" t="s">
         <v>7</v>
@@ -1576,19 +1651,19 @@
       <c r="AC22" s="4"/>
     </row>
     <row r="23" spans="1:29" s="11" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="2"/>
+      <c r="A23" s="22">
+        <v>16</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>32</v>
+      </c>
       <c r="C23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="s">
         <v>7</v>
@@ -1617,22 +1692,22 @@
       <c r="AC23" s="4"/>
     </row>
     <row r="24" spans="1:29" s="11" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="2"/>
+      <c r="A24" s="22">
+        <v>17</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>37</v>
+      </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -1658,19 +1733,19 @@
       <c r="AC24" s="4"/>
     </row>
     <row r="25" spans="1:29" s="11" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="2"/>
+      <c r="A25" s="22">
+        <v>18</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>38</v>
+      </c>
       <c r="C25" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2" t="s">
         <v>7</v>
@@ -1699,19 +1774,19 @@
       <c r="AC25" s="4"/>
     </row>
     <row r="26" spans="1:29" s="11" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="2"/>
+      <c r="A26" s="22">
+        <v>19</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="C26" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2" t="s">
         <v>7</v>
@@ -1740,19 +1815,19 @@
       <c r="AC26" s="4"/>
     </row>
     <row r="27" spans="1:29" s="11" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="2"/>
+      <c r="A27" s="22">
+        <v>20</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>39</v>
+      </c>
       <c r="C27" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2" t="s">
         <v>7</v>
@@ -1781,22 +1856,22 @@
       <c r="AC27" s="4"/>
     </row>
     <row r="28" spans="1:29" s="11" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="2"/>
+      <c r="A28" s="22">
+        <v>21</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C28" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
@@ -1822,19 +1897,19 @@
       <c r="AC28" s="4"/>
     </row>
     <row r="29" spans="1:29" s="13" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="2"/>
+      <c r="A29" s="22">
+        <v>22</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C29" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2" t="s">
         <v>7</v>
@@ -1863,22 +1938,22 @@
       <c r="AC29" s="4"/>
     </row>
     <row r="30" spans="1:29" s="11" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="2"/>
+      <c r="A30" s="22">
+        <v>23</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="C30" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -1904,22 +1979,22 @@
       <c r="AC30" s="4"/>
     </row>
     <row r="31" spans="1:29" s="11" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="2"/>
+      <c r="A31" s="22">
+        <v>24</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C31" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
@@ -1945,19 +2020,19 @@
       <c r="AC31" s="4"/>
     </row>
     <row r="32" spans="1:29" s="12" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32" s="2"/>
+      <c r="A32" s="22">
+        <v>25</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>41</v>
+      </c>
       <c r="C32" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2" t="s">
         <v>7</v>
@@ -1986,19 +2061,19 @@
       <c r="AC32" s="4"/>
     </row>
     <row r="33" spans="1:29" s="12" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="2"/>
+      <c r="A33" s="22">
+        <v>26</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>42</v>
+      </c>
       <c r="C33" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2" t="s">
         <v>7</v>
@@ -2027,19 +2102,19 @@
       <c r="AC33" s="4"/>
     </row>
     <row r="34" spans="1:29" s="11" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="2"/>
+      <c r="A34" s="22">
+        <v>27</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C34" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2" t="s">
         <v>7</v>
@@ -2068,19 +2143,19 @@
       <c r="AC34" s="4"/>
     </row>
     <row r="35" spans="1:29" s="12" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" s="2"/>
+      <c r="A35" s="22">
+        <v>28</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C35" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2" t="s">
         <v>7</v>
@@ -2109,19 +2184,19 @@
       <c r="AC35" s="4"/>
     </row>
     <row r="36" spans="1:29" s="11" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="2"/>
+      <c r="A36" s="22">
+        <v>29</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C36" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2" t="s">
         <v>7</v>
@@ -2150,19 +2225,19 @@
       <c r="AC36" s="4"/>
     </row>
     <row r="37" spans="1:29" s="11" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="2"/>
+      <c r="A37" s="22">
+        <v>30</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C37" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2" t="s">
         <v>7</v>
@@ -2191,19 +2266,19 @@
       <c r="AC37" s="4"/>
     </row>
     <row r="38" spans="1:29" s="11" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="2"/>
+      <c r="A38" s="22">
+        <v>31</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C38" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2" t="s">
         <v>7</v>
@@ -2232,19 +2307,19 @@
       <c r="AC38" s="4"/>
     </row>
     <row r="39" spans="1:29" s="11" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="22">
+        <v>32</v>
+      </c>
+      <c r="B39" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2" t="s">
         <v>7</v>
@@ -2273,19 +2348,19 @@
       <c r="AC39" s="4"/>
     </row>
     <row r="40" spans="1:29" s="11" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="22">
+        <v>33</v>
+      </c>
+      <c r="B40" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2" t="s">
         <v>7</v>
@@ -2314,19 +2389,19 @@
       <c r="AC40" s="4"/>
     </row>
     <row r="41" spans="1:29" s="11" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" s="2"/>
+      <c r="A41" s="22">
+        <v>34</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C41" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2" t="s">
         <v>7</v>
@@ -2355,19 +2430,19 @@
       <c r="AC41" s="4"/>
     </row>
     <row r="42" spans="1:29" s="11" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42" s="2"/>
+      <c r="A42" s="22">
+        <v>35</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C42" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2" t="s">
         <v>7</v>
@@ -2396,22 +2471,22 @@
       <c r="AC42" s="4"/>
     </row>
     <row r="43" spans="1:29" s="11" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" s="2"/>
+      <c r="A43" s="22">
+        <v>36</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C43" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
@@ -2437,19 +2512,19 @@
       <c r="AC43" s="4"/>
     </row>
     <row r="44" spans="1:29" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" s="2"/>
+      <c r="A44" s="22">
+        <v>37</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="C44" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2" t="s">
         <v>7</v>
@@ -2478,19 +2553,19 @@
       <c r="AC44" s="4"/>
     </row>
     <row r="45" spans="1:29" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B45" s="2"/>
+      <c r="A45" s="22">
+        <v>38</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="C45" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2" t="s">
         <v>7</v>
@@ -2519,19 +2594,19 @@
       <c r="AC45" s="4"/>
     </row>
     <row r="46" spans="1:29" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B46" s="2"/>
+      <c r="A46" s="22">
+        <v>39</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="C46" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2" t="s">
         <v>7</v>
@@ -2560,19 +2635,19 @@
       <c r="AC46" s="4"/>
     </row>
     <row r="47" spans="1:29" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B47" s="2"/>
+      <c r="A47" s="22">
+        <v>40</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C47" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2" t="s">
         <v>7</v>
@@ -2601,22 +2676,22 @@
       <c r="AC47" s="4"/>
     </row>
     <row r="48" spans="1:29" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B48" s="2"/>
+      <c r="A48" s="22">
+        <v>41</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>29</v>
+      </c>
       <c r="C48" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
@@ -2642,22 +2717,22 @@
       <c r="AC48" s="4"/>
     </row>
     <row r="49" spans="1:29" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B49" s="2"/>
+      <c r="A49" s="22">
+        <v>42</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C49" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
@@ -2683,22 +2758,22 @@
       <c r="AC49" s="4"/>
     </row>
     <row r="50" spans="1:29" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B50" s="2"/>
+      <c r="A50" s="22">
+        <v>43</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>33</v>
+      </c>
       <c r="C50" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
@@ -2724,22 +2799,22 @@
       <c r="AC50" s="4"/>
     </row>
     <row r="51" spans="1:29" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B51" s="2"/>
+      <c r="A51" s="22">
+        <v>44</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>26</v>
+      </c>
       <c r="C51" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
@@ -2765,22 +2840,22 @@
       <c r="AC51" s="4"/>
     </row>
     <row r="52" spans="1:29" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B52" s="2"/>
+      <c r="A52" s="22">
+        <v>45</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>27</v>
+      </c>
       <c r="C52" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
@@ -2806,8 +2881,8 @@
       <c r="AC52" s="4"/>
     </row>
     <row r="53" spans="1:29" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
+      <c r="A53" s="22"/>
+      <c r="B53" s="20"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -2838,7 +2913,7 @@
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A54" s="14"/>
-      <c r="B54" s="4"/>
+      <c r="B54" s="18"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -2869,7 +2944,7 @@
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A55" s="14"/>
-      <c r="B55" s="4"/>
+      <c r="B55" s="18"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -3086,7 +3161,7 @@
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A62" s="14"/>
-      <c r="B62" s="4"/>
+      <c r="B62" s="18"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -3117,7 +3192,7 @@
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A63" s="14"/>
-      <c r="B63" s="4"/>
+      <c r="B63" s="18"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
@@ -3148,7 +3223,7 @@
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A64" s="14"/>
-      <c r="B64" s="4"/>
+      <c r="B64" s="18"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
@@ -3179,7 +3254,7 @@
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A65" s="14"/>
-      <c r="B65" s="4"/>
+      <c r="B65" s="18"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
@@ -3210,7 +3285,7 @@
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A66" s="14"/>
-      <c r="B66" s="4"/>
+      <c r="B66" s="18"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
@@ -3241,7 +3316,7 @@
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A67" s="14"/>
-      <c r="B67" s="4"/>
+      <c r="B67" s="18"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
@@ -3272,7 +3347,7 @@
     </row>
     <row r="68" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A68" s="14"/>
-      <c r="B68" s="4"/>
+      <c r="B68" s="18"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
@@ -3303,7 +3378,7 @@
     </row>
     <row r="69" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A69" s="14"/>
-      <c r="B69" s="4"/>
+      <c r="B69" s="18"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
@@ -3334,7 +3409,7 @@
     </row>
     <row r="70" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A70" s="14"/>
-      <c r="B70" s="4"/>
+      <c r="B70" s="18"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
@@ -3365,7 +3440,7 @@
     </row>
     <row r="71" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A71" s="14"/>
-      <c r="B71" s="4"/>
+      <c r="B71" s="18"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
@@ -3396,7 +3471,7 @@
     </row>
     <row r="72" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A72" s="14"/>
-      <c r="B72" s="4"/>
+      <c r="B72" s="18"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
@@ -3427,7 +3502,7 @@
     </row>
     <row r="73" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A73" s="14"/>
-      <c r="B73" s="4"/>
+      <c r="B73" s="18"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
@@ -3458,7 +3533,7 @@
     </row>
     <row r="74" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A74" s="14"/>
-      <c r="B74" s="4"/>
+      <c r="B74" s="18"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
@@ -3489,7 +3564,7 @@
     </row>
     <row r="75" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A75" s="14"/>
-      <c r="B75" s="4"/>
+      <c r="B75" s="18"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
@@ -3520,7 +3595,7 @@
     </row>
     <row r="76" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A76" s="14"/>
-      <c r="B76" s="4"/>
+      <c r="B76" s="18"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
@@ -3551,7 +3626,7 @@
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A77" s="14"/>
-      <c r="B77" s="4"/>
+      <c r="B77" s="18"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
@@ -3582,7 +3657,7 @@
     </row>
     <row r="78" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A78" s="14"/>
-      <c r="B78" s="4"/>
+      <c r="B78" s="18"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
@@ -3613,7 +3688,7 @@
     </row>
     <row r="79" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A79" s="14"/>
-      <c r="B79" s="4"/>
+      <c r="B79" s="18"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
@@ -3644,7 +3719,7 @@
     </row>
     <row r="80" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A80" s="14"/>
-      <c r="B80" s="4"/>
+      <c r="B80" s="18"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
@@ -3675,7 +3750,7 @@
     </row>
     <row r="81" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A81" s="14"/>
-      <c r="B81" s="4"/>
+      <c r="B81" s="18"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
@@ -3706,7 +3781,7 @@
     </row>
     <row r="82" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A82" s="14"/>
-      <c r="B82" s="4"/>
+      <c r="B82" s="18"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
@@ -3737,7 +3812,7 @@
     </row>
     <row r="83" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A83" s="14"/>
-      <c r="B83" s="4"/>
+      <c r="B83" s="18"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
@@ -3768,7 +3843,7 @@
     </row>
     <row r="84" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A84" s="14"/>
-      <c r="B84" s="4"/>
+      <c r="B84" s="18"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
@@ -3799,7 +3874,7 @@
     </row>
     <row r="85" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A85" s="14"/>
-      <c r="B85" s="4"/>
+      <c r="B85" s="18"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
@@ -3830,7 +3905,7 @@
     </row>
     <row r="86" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A86" s="14"/>
-      <c r="B86" s="4"/>
+      <c r="B86" s="18"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
@@ -3861,7 +3936,7 @@
     </row>
     <row r="87" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A87" s="14"/>
-      <c r="B87" s="4"/>
+      <c r="B87" s="18"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -3892,7 +3967,7 @@
     </row>
     <row r="88" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A88" s="14"/>
-      <c r="B88" s="4"/>
+      <c r="B88" s="18"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
@@ -3923,7 +3998,7 @@
     </row>
     <row r="89" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A89" s="14"/>
-      <c r="B89" s="4"/>
+      <c r="B89" s="18"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
@@ -3954,7 +4029,7 @@
     </row>
     <row r="90" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A90" s="14"/>
-      <c r="B90" s="4"/>
+      <c r="B90" s="18"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -3985,7 +4060,7 @@
     </row>
     <row r="91" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A91" s="14"/>
-      <c r="B91" s="4"/>
+      <c r="B91" s="18"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
@@ -4016,7 +4091,7 @@
     </row>
     <row r="92" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A92" s="14"/>
-      <c r="B92" s="4"/>
+      <c r="B92" s="18"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
@@ -4047,7 +4122,7 @@
     </row>
     <row r="93" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A93" s="14"/>
-      <c r="B93" s="4"/>
+      <c r="B93" s="18"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
@@ -4078,7 +4153,7 @@
     </row>
     <row r="94" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A94" s="14"/>
-      <c r="B94" s="4"/>
+      <c r="B94" s="18"/>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
@@ -4109,7 +4184,7 @@
     </row>
     <row r="95" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A95" s="14"/>
-      <c r="B95" s="4"/>
+      <c r="B95" s="18"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
@@ -4140,7 +4215,7 @@
     </row>
     <row r="96" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A96" s="14"/>
-      <c r="B96" s="4"/>
+      <c r="B96" s="18"/>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
@@ -4171,7 +4246,7 @@
     </row>
     <row r="97" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A97" s="14"/>
-      <c r="B97" s="4"/>
+      <c r="B97" s="18"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
@@ -4202,7 +4277,7 @@
     </row>
     <row r="98" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A98" s="14"/>
-      <c r="B98" s="4"/>
+      <c r="B98" s="18"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
@@ -4233,7 +4308,7 @@
     </row>
     <row r="99" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A99" s="14"/>
-      <c r="B99" s="4"/>
+      <c r="B99" s="18"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
@@ -4263,23 +4338,24 @@
       <c r="AC99" s="4"/>
     </row>
   </sheetData>
+  <sortState ref="A9:G52">
+    <sortCondition ref="A9:A52"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A56:L61"/>
   </mergeCells>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G53 B9:C53">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G53 E9:E53 C9:C53">
       <formula1>YesNo</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D53">
-      <formula1>Priority</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E53">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
